--- a/templates/PL-BJ-Lamp_2.xlsx
+++ b/templates/PL-BJ-Lamp_2.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985"/>
+    <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="76">
   <si>
     <t>Lampiran : 2.</t>
   </si>
@@ -40,9 +40,6 @@
     <t xml:space="preserve">               PENGADAAN BARANG ..................................................................</t>
   </si>
   <si>
-    <t>PT PLN (PERSERO) .....................</t>
-  </si>
-  <si>
     <t>NOMOR</t>
   </si>
   <si>
@@ -118,9 +115,6 @@
     <t>JASA BORONGAN PEKERJAAN PENGADAAN DAN PEMASANGAN</t>
   </si>
   <si>
-    <t>PT PLN (PERSERO) ...........................</t>
-  </si>
-  <si>
     <t>SATUAN</t>
   </si>
   <si>
@@ -260,6 +254,9 @@
   </si>
   <si>
     <t xml:space="preserve">               RKS PENUNJUKAN LANGSUNG</t>
+  </si>
+  <si>
+    <t>PT PLN (PERSERO) KANTOR PUSAT</t>
   </si>
 </sst>
 </file>
@@ -657,25 +654,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="centerContinuous"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -695,6 +673,25 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="centerContinuous"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1068,9 +1065,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H67"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
-    </sheetView>
+    <sheetView zoomScale="75" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -1089,7 +1084,7 @@
       <c r="E1" s="4"/>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
-      <c r="H1" s="60" t="s">
+      <c r="H1" s="53" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1103,15 +1098,15 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="54" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="H3" s="62"/>
+      <c r="C3" s="55"/>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="H3" s="55"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="4"/>
@@ -1121,63 +1116,63 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15">
+      <c r="B5" s="56" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="15">
-      <c r="B5" s="63" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="62"/>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-      <c r="H5" s="62"/>
+      <c r="C5" s="55"/>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="H5" s="55"/>
     </row>
     <row r="6" spans="2:8" ht="15">
-      <c r="B6" s="63" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="62"/>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-      <c r="H6" s="62"/>
+      <c r="B6" s="56" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="55"/>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="H6" s="55"/>
     </row>
     <row r="7" spans="2:8" ht="15">
-      <c r="B7" s="63" t="s">
-        <v>72</v>
-      </c>
-      <c r="C7" s="62"/>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
-      <c r="H7" s="62"/>
+      <c r="B7" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="C7" s="55"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="H7" s="55"/>
     </row>
     <row r="8" spans="2:8" ht="15">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="56" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="62"/>
-      <c r="D8" s="62"/>
-      <c r="E8" s="62"/>
-      <c r="F8" s="62"/>
-      <c r="G8" s="62"/>
-      <c r="H8" s="62"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="55"/>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="H8" s="55"/>
     </row>
     <row r="9" spans="2:8" ht="15">
-      <c r="B9" s="63" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
+      <c r="B9" s="56" t="s">
+        <v>75</v>
+      </c>
+      <c r="C9" s="55"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="4"/>
@@ -1201,53 +1196,53 @@
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
       <c r="D12" s="17" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E12" s="17"/>
       <c r="F12" s="18" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G12" s="19"/>
       <c r="H12" s="20" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="2:8">
       <c r="B13" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>7</v>
       </c>
-      <c r="C13" s="21" t="s">
+      <c r="D13" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="21" t="s">
+      <c r="E13" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="F13" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="E13" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F13" s="21" t="s">
+      <c r="G13" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="G13" s="21" t="s">
+      <c r="H13" s="22" t="s">
         <v>11</v>
-      </c>
-      <c r="H13" s="22" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="13.5" thickBot="1">
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
       <c r="D14" s="23" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E14" s="23"/>
       <c r="F14" s="23" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="G14" s="23"/>
       <c r="H14" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="13.5" thickBot="1">
@@ -1269,7 +1264,7 @@
       <c r="G15" s="32">
         <v>6</v>
       </c>
-      <c r="H15" s="54">
+      <c r="H15" s="47">
         <v>7</v>
       </c>
     </row>
@@ -1644,40 +1639,40 @@
     </row>
     <row r="57" spans="2:8">
       <c r="B57" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
-      <c r="G57" s="58"/>
+      <c r="G57" s="51"/>
       <c r="H57" s="1"/>
     </row>
     <row r="58" spans="2:8" ht="13.5" thickBot="1">
       <c r="B58" s="10" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C58" s="11"/>
       <c r="D58" s="11"/>
       <c r="E58" s="11"/>
       <c r="F58" s="11"/>
-      <c r="G58" s="59"/>
+      <c r="G58" s="52"/>
       <c r="H58" s="3"/>
     </row>
     <row r="59" spans="2:8" ht="13.5" thickBot="1">
       <c r="B59" s="10" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C59" s="11"/>
       <c r="D59" s="11"/>
       <c r="E59" s="11"/>
       <c r="F59" s="11"/>
-      <c r="G59" s="59"/>
+      <c r="G59" s="52"/>
       <c r="H59" s="3"/>
     </row>
     <row r="60" spans="2:8" ht="13.5" thickBot="1">
       <c r="B60" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C60" s="6"/>
       <c r="D60" s="6"/>
@@ -1687,72 +1682,72 @@
       <c r="H60" s="7"/>
     </row>
     <row r="61" spans="2:8" ht="13.5" thickTop="1">
-      <c r="B61" s="55"/>
-      <c r="C61" s="56"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
-      <c r="F61" s="56"/>
-      <c r="G61" s="56"/>
-      <c r="H61" s="56"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="49"/>
+      <c r="D61" s="49"/>
+      <c r="E61" s="49"/>
+      <c r="F61" s="49"/>
+      <c r="G61" s="49"/>
+      <c r="H61" s="49"/>
     </row>
     <row r="62" spans="2:8">
-      <c r="B62" s="57" t="s">
+      <c r="B62" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="50"/>
+      <c r="F62" s="50"/>
+      <c r="G62" s="50"/>
+      <c r="H62" s="50"/>
+    </row>
+    <row r="63" spans="2:8">
+      <c r="B63" s="50" t="s">
         <v>20</v>
       </c>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
-      <c r="E62" s="57"/>
-      <c r="F62" s="57"/>
-      <c r="G62" s="57"/>
-      <c r="H62" s="57"/>
-    </row>
-    <row r="63" spans="2:8">
-      <c r="B63" s="57" t="s">
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
+      <c r="H63" s="50"/>
+    </row>
+    <row r="64" spans="2:8">
+      <c r="B64" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
-      <c r="F63" s="57"/>
-      <c r="G63" s="57"/>
-      <c r="H63" s="57"/>
-    </row>
-    <row r="64" spans="2:8">
-      <c r="B64" s="57" t="s">
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
+      <c r="H64" s="50"/>
+    </row>
+    <row r="65" spans="1:8">
+      <c r="B65" s="50" t="s">
         <v>22</v>
       </c>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
-      <c r="E64" s="57"/>
-      <c r="F64" s="57"/>
-      <c r="G64" s="57"/>
-      <c r="H64" s="57"/>
-    </row>
-    <row r="65" spans="1:8">
-      <c r="B65" s="57" t="s">
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="50"/>
+      <c r="F65" s="50"/>
+      <c r="G65" s="50"/>
+      <c r="H65" s="50"/>
+    </row>
+    <row r="66" spans="1:8">
+      <c r="B66" s="48"/>
+      <c r="C66" s="50" t="s">
         <v>23</v>
       </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
-      <c r="E65" s="57"/>
-      <c r="F65" s="57"/>
-      <c r="G65" s="57"/>
-      <c r="H65" s="57"/>
-    </row>
-    <row r="66" spans="1:8">
-      <c r="B66" s="55"/>
-      <c r="C66" s="57" t="s">
+      <c r="D66" s="49"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="49"/>
+      <c r="G66" s="49"/>
+      <c r="H66" s="49"/>
+    </row>
+    <row r="67" spans="1:8">
+      <c r="A67" s="46" t="s">
         <v>24</v>
-      </c>
-      <c r="D66" s="56"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="56"/>
-      <c r="H66" s="56"/>
-    </row>
-    <row r="67" spans="1:8">
-      <c r="A67" s="53" t="s">
-        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -1901,8 +1896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView topLeftCell="B49" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6:G6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1922,49 +1917,49 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="3:7" ht="15">
-      <c r="C3" s="63" t="s">
+      <c r="C3" s="56" t="s">
+        <v>73</v>
+      </c>
+      <c r="D3" s="55"/>
+      <c r="E3" s="55"/>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+    </row>
+    <row r="4" spans="3:7" ht="15">
+      <c r="C4" s="56" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="55"/>
+      <c r="E4" s="55"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+    </row>
+    <row r="5" spans="3:7" ht="15">
+      <c r="C5" s="56" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="55"/>
+      <c r="E5" s="55"/>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+    </row>
+    <row r="6" spans="3:7" ht="15">
+      <c r="C6" s="56" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="55"/>
+      <c r="E6" s="55"/>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+    </row>
+    <row r="7" spans="3:7" ht="15">
+      <c r="C7" s="56" t="s">
         <v>75</v>
       </c>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-    </row>
-    <row r="4" spans="3:7" ht="15">
-      <c r="C4" s="63" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="3:7" ht="15">
-      <c r="C5" s="63" t="s">
-        <v>27</v>
-      </c>
-      <c r="D5" s="62"/>
-      <c r="E5" s="62"/>
-      <c r="F5" s="62"/>
-      <c r="G5" s="62"/>
-    </row>
-    <row r="6" spans="3:7" ht="15">
-      <c r="C6" s="63" t="s">
-        <v>28</v>
-      </c>
-      <c r="D6" s="62"/>
-      <c r="E6" s="62"/>
-      <c r="F6" s="62"/>
-      <c r="G6" s="62"/>
-    </row>
-    <row r="7" spans="3:7" ht="15">
-      <c r="C7" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="D7" s="62"/>
-      <c r="E7" s="62"/>
-      <c r="F7" s="62"/>
-      <c r="G7" s="62"/>
+      <c r="D7" s="55"/>
+      <c r="E7" s="55"/>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
     </row>
     <row r="8" spans="3:7" ht="13.5" thickBot="1">
       <c r="C8" s="4"/>
@@ -1974,48 +1969,48 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="3:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C9" s="46"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="47" t="s">
+      <c r="C9" s="57"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
+      <c r="F9" s="58" t="s">
+        <v>4</v>
+      </c>
+      <c r="G9" s="59"/>
+    </row>
+    <row r="10" spans="3:7" ht="15">
+      <c r="C10" s="60" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="60" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="G9" s="48"/>
-    </row>
-    <row r="10" spans="3:7" ht="15">
-      <c r="C10" s="49" t="s">
-        <v>7</v>
-      </c>
-      <c r="D10" s="49" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="G10" s="49" t="s">
-        <v>6</v>
+      <c r="F10" s="61" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="60" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="52" t="s">
-        <v>31</v>
-      </c>
-      <c r="G11" s="51" t="s">
-        <v>31</v>
+      <c r="C11" s="62"/>
+      <c r="D11" s="62"/>
+      <c r="E11" s="62"/>
+      <c r="F11" s="63" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" s="62" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="45" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="4"/>
@@ -2024,7 +2019,7 @@
     <row r="13" spans="3:7">
       <c r="C13" s="45"/>
       <c r="D13" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="4"/>
@@ -2033,7 +2028,7 @@
     <row r="14" spans="3:7">
       <c r="C14" s="45"/>
       <c r="D14" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="4"/>
@@ -2042,7 +2037,7 @@
     <row r="15" spans="3:7">
       <c r="C15" s="45"/>
       <c r="D15" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="4"/>
@@ -2051,7 +2046,7 @@
     <row r="16" spans="3:7" ht="13.5" thickBot="1">
       <c r="C16" s="45"/>
       <c r="D16" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="4"/>
@@ -2060,7 +2055,7 @@
     <row r="17" spans="3:7" ht="13.5" thickBot="1">
       <c r="C17" s="45"/>
       <c r="D17" s="42" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
@@ -2068,10 +2063,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="45" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="4"/>
@@ -2080,7 +2075,7 @@
     <row r="19" spans="3:7">
       <c r="C19" s="45"/>
       <c r="D19" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="4"/>
@@ -2089,7 +2084,7 @@
     <row r="20" spans="3:7">
       <c r="C20" s="45"/>
       <c r="D20" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="4"/>
@@ -2098,7 +2093,7 @@
     <row r="21" spans="3:7">
       <c r="C21" s="45"/>
       <c r="D21" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="4"/>
@@ -2107,7 +2102,7 @@
     <row r="22" spans="3:7">
       <c r="C22" s="45"/>
       <c r="D22" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="4"/>
@@ -2116,7 +2111,7 @@
     <row r="23" spans="3:7">
       <c r="C23" s="45"/>
       <c r="D23" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="4"/>
@@ -2125,7 +2120,7 @@
     <row r="24" spans="3:7">
       <c r="C24" s="45"/>
       <c r="D24" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="4"/>
@@ -2134,7 +2129,7 @@
     <row r="25" spans="3:7">
       <c r="C25" s="45"/>
       <c r="D25" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="4"/>
@@ -2143,7 +2138,7 @@
     <row r="26" spans="3:7">
       <c r="C26" s="45"/>
       <c r="D26" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="4"/>
@@ -2152,7 +2147,7 @@
     <row r="27" spans="3:7">
       <c r="C27" s="45"/>
       <c r="D27" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
@@ -2161,7 +2156,7 @@
     <row r="28" spans="3:7">
       <c r="C28" s="45"/>
       <c r="D28" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="4"/>
@@ -2170,7 +2165,7 @@
     <row r="29" spans="3:7">
       <c r="C29" s="45"/>
       <c r="D29" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="4"/>
@@ -2179,7 +2174,7 @@
     <row r="30" spans="3:7" ht="13.5" thickBot="1">
       <c r="C30" s="45"/>
       <c r="D30" s="27" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="4"/>
@@ -2188,7 +2183,7 @@
     <row r="31" spans="3:7" ht="13.5" thickBot="1">
       <c r="C31" s="45"/>
       <c r="D31" s="42" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="29"/>
@@ -2196,10 +2191,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="45" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="4"/>
@@ -2208,7 +2203,7 @@
     <row r="33" spans="3:7">
       <c r="C33" s="45"/>
       <c r="D33" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="4"/>
@@ -2217,7 +2212,7 @@
     <row r="34" spans="3:7" ht="13.5" thickBot="1">
       <c r="C34" s="45"/>
       <c r="D34" s="27" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="4"/>
@@ -2226,7 +2221,7 @@
     <row r="35" spans="3:7" ht="13.5" thickBot="1">
       <c r="C35" s="45"/>
       <c r="D35" s="42" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
@@ -2234,10 +2229,10 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="45" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="4"/>
@@ -2246,7 +2241,7 @@
     <row r="37" spans="3:7">
       <c r="C37" s="45"/>
       <c r="D37" s="27" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="4"/>
@@ -2255,7 +2250,7 @@
     <row r="38" spans="3:7" ht="13.5" thickBot="1">
       <c r="C38" s="45"/>
       <c r="D38" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="4"/>
@@ -2264,7 +2259,7 @@
     <row r="39" spans="3:7" ht="13.5" thickBot="1">
       <c r="C39" s="45"/>
       <c r="D39" s="42" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -2272,10 +2267,10 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="45" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="4"/>
@@ -2284,7 +2279,7 @@
     <row r="41" spans="3:7">
       <c r="C41" s="45"/>
       <c r="D41" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="4"/>
@@ -2293,7 +2288,7 @@
     <row r="42" spans="3:7">
       <c r="C42" s="45"/>
       <c r="D42" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="4"/>
@@ -2302,7 +2297,7 @@
     <row r="43" spans="3:7" ht="13.5" thickBot="1">
       <c r="C43" s="45"/>
       <c r="D43" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="4"/>
@@ -2311,7 +2306,7 @@
     <row r="44" spans="3:7" ht="13.5" thickBot="1">
       <c r="C44" s="45"/>
       <c r="D44" s="42" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
@@ -2319,10 +2314,10 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="45" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="4"/>
@@ -2331,7 +2326,7 @@
     <row r="46" spans="3:7">
       <c r="C46" s="45"/>
       <c r="D46" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="4"/>
@@ -2340,7 +2335,7 @@
     <row r="47" spans="3:7">
       <c r="C47" s="45"/>
       <c r="D47" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="4"/>
@@ -2349,7 +2344,7 @@
     <row r="48" spans="3:7" ht="13.5" thickBot="1">
       <c r="C48" s="45"/>
       <c r="D48" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="4"/>
@@ -2358,7 +2353,7 @@
     <row r="49" spans="3:7" ht="13.5" thickBot="1">
       <c r="C49" s="45"/>
       <c r="D49" s="42" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
@@ -2366,10 +2361,10 @@
     </row>
     <row r="50" spans="3:7">
       <c r="C50" s="45" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="4"/>
@@ -2378,7 +2373,7 @@
     <row r="51" spans="3:7">
       <c r="C51" s="45"/>
       <c r="D51" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="4"/>
@@ -2387,7 +2382,7 @@
     <row r="52" spans="3:7">
       <c r="C52" s="45"/>
       <c r="D52" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="4"/>
@@ -2396,7 +2391,7 @@
     <row r="53" spans="3:7" ht="13.5" thickBot="1">
       <c r="C53" s="45"/>
       <c r="D53" s="27" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="4"/>
@@ -2405,7 +2400,7 @@
     <row r="54" spans="3:7" ht="13.5" thickBot="1">
       <c r="C54" s="45"/>
       <c r="D54" s="42" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -2413,10 +2408,10 @@
     </row>
     <row r="55" spans="3:7">
       <c r="C55" s="45" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="4"/>
@@ -2425,7 +2420,7 @@
     <row r="56" spans="3:7">
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="4"/>
@@ -2434,7 +2429,7 @@
     <row r="57" spans="3:7" ht="13.5" thickBot="1">
       <c r="C57" s="26"/>
       <c r="D57" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="4"/>
@@ -2443,7 +2438,7 @@
     <row r="58" spans="3:7" ht="13.5" thickBot="1">
       <c r="C58" s="26"/>
       <c r="D58" s="42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
@@ -2486,7 +2481,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="43" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2495,7 +2490,7 @@
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
       <c r="C65" s="44" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -2504,7 +2499,7 @@
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1">
       <c r="C66" s="36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
@@ -2519,8 +2514,8 @@
       <c r="G67" s="4"/>
     </row>
     <row r="68" spans="1:7" ht="14.25">
-      <c r="A68" s="53" t="s">
-        <v>71</v>
+      <c r="A68" s="46" t="s">
+        <v>69</v>
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="5"/>
@@ -2529,7 +2524,7 @@
       <c r="G68" s="5"/>
     </row>
     <row r="69" spans="1:7" ht="14.25">
-      <c r="A69" s="53"/>
+      <c r="A69" s="46"/>
       <c r="C69" s="40"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>

--- a/templates/PL-BJ-Lamp_2.xlsx
+++ b/templates/PL-BJ-Lamp_2.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="45" windowWidth="9690" windowHeight="5985" activeTab="1"/>
@@ -106,12 +106,6 @@
     <t>Sheet1</t>
   </si>
   <si>
-    <t>NOMOR     : ..................................................</t>
-  </si>
-  <si>
-    <t>TANGGAL : ..................................................</t>
-  </si>
-  <si>
     <t>JASA BORONGAN PEKERJAAN PENGADAAN DAN PEMASANGAN</t>
   </si>
   <si>
@@ -257,6 +251,12 @@
   </si>
   <si>
     <t>PT PLN (PERSERO) KANTOR PUSAT</t>
+  </si>
+  <si>
+    <t>NOMOR     : #nomor#</t>
+  </si>
+  <si>
+    <t>TANGGAL : #tanggal#</t>
   </si>
 </sst>
 </file>
@@ -666,15 +666,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="centerContinuous"/>
@@ -692,6 +683,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1098,15 +1098,15 @@
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="2:8" ht="15.75">
-      <c r="B3" s="54" t="s">
+      <c r="B3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-      <c r="H3" s="55"/>
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+      <c r="H3" s="62"/>
     </row>
     <row r="4" spans="2:8">
       <c r="B4" s="4"/>
@@ -1116,63 +1116,63 @@
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" ht="15">
+      <c r="B5" s="63" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" ht="15">
-      <c r="B5" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-      <c r="H5" s="55"/>
+      <c r="C5" s="62"/>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+      <c r="H5" s="62"/>
     </row>
     <row r="6" spans="2:8" ht="15">
-      <c r="B6" s="56" t="s">
-        <v>71</v>
-      </c>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-      <c r="H6" s="55"/>
+      <c r="B6" s="63" t="s">
+        <v>69</v>
+      </c>
+      <c r="C6" s="62"/>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+      <c r="H6" s="62"/>
     </row>
     <row r="7" spans="2:8" ht="15">
-      <c r="B7" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
-      <c r="H7" s="55"/>
+      <c r="B7" s="63" t="s">
+        <v>68</v>
+      </c>
+      <c r="C7" s="62"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
+      <c r="H7" s="62"/>
     </row>
     <row r="8" spans="2:8" ht="15">
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="63" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
-      <c r="E8" s="55"/>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
-      <c r="H8" s="55"/>
+      <c r="C8" s="62"/>
+      <c r="D8" s="62"/>
+      <c r="E8" s="62"/>
+      <c r="F8" s="62"/>
+      <c r="G8" s="62"/>
+      <c r="H8" s="62"/>
     </row>
     <row r="9" spans="2:8" ht="15">
-      <c r="B9" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
-      <c r="H9" s="55"/>
+      <c r="B9" s="63" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="62"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="62"/>
+      <c r="F9" s="62"/>
+      <c r="G9" s="62"/>
+      <c r="H9" s="62"/>
     </row>
     <row r="10" spans="2:8">
       <c r="B10" s="4"/>
@@ -1897,7 +1897,7 @@
   <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C5" sqref="C5:G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -1917,49 +1917,49 @@
       <c r="G2" s="25"/>
     </row>
     <row r="3" spans="3:7" ht="15">
-      <c r="C3" s="56" t="s">
+      <c r="C3" s="63" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" s="62"/>
+      <c r="E3" s="62"/>
+      <c r="F3" s="62"/>
+      <c r="G3" s="62"/>
+    </row>
+    <row r="4" spans="3:7" ht="15">
+      <c r="C4" s="63" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="62"/>
+      <c r="E4" s="62"/>
+      <c r="F4" s="62"/>
+      <c r="G4" s="62"/>
+    </row>
+    <row r="5" spans="3:7" ht="15">
+      <c r="C5" s="63" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="62"/>
+      <c r="E5" s="62"/>
+      <c r="F5" s="62"/>
+      <c r="G5" s="62"/>
+    </row>
+    <row r="6" spans="3:7" ht="15">
+      <c r="C6" s="63" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="62"/>
+      <c r="E6" s="62"/>
+      <c r="F6" s="62"/>
+      <c r="G6" s="62"/>
+    </row>
+    <row r="7" spans="3:7" ht="15">
+      <c r="C7" s="63" t="s">
         <v>73</v>
       </c>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
-    </row>
-    <row r="4" spans="3:7" ht="15">
-      <c r="C4" s="56" t="s">
-        <v>25</v>
-      </c>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-    </row>
-    <row r="5" spans="3:7" ht="15">
-      <c r="C5" s="56" t="s">
-        <v>26</v>
-      </c>
-      <c r="D5" s="55"/>
-      <c r="E5" s="55"/>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
-    </row>
-    <row r="6" spans="3:7" ht="15">
-      <c r="C6" s="56" t="s">
-        <v>27</v>
-      </c>
-      <c r="D6" s="55"/>
-      <c r="E6" s="55"/>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
-    </row>
-    <row r="7" spans="3:7" ht="15">
-      <c r="C7" s="56" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="55"/>
-      <c r="E7" s="55"/>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="D7" s="62"/>
+      <c r="E7" s="62"/>
+      <c r="F7" s="62"/>
+      <c r="G7" s="62"/>
     </row>
     <row r="8" spans="3:7" ht="13.5" thickBot="1">
       <c r="C8" s="4"/>
@@ -1969,48 +1969,48 @@
       <c r="G8" s="4"/>
     </row>
     <row r="9" spans="3:7" ht="16.5" thickTop="1" thickBot="1">
-      <c r="C9" s="57"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
-      <c r="F9" s="58" t="s">
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="55" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="59"/>
+      <c r="G9" s="56"/>
     </row>
     <row r="10" spans="3:7" ht="15">
-      <c r="C10" s="60" t="s">
+      <c r="C10" s="57" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="60" t="s">
+      <c r="D10" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="E10" s="60" t="s">
+      <c r="E10" s="57" t="s">
         <v>5</v>
       </c>
-      <c r="F10" s="61" t="s">
-        <v>28</v>
-      </c>
-      <c r="G10" s="60" t="s">
+      <c r="F10" s="58" t="s">
+        <v>26</v>
+      </c>
+      <c r="G10" s="57" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="11" spans="3:7" ht="15.75" thickBot="1">
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="63" t="s">
-        <v>29</v>
-      </c>
-      <c r="G11" s="62" t="s">
-        <v>29</v>
+      <c r="C11" s="59"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="59" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="3:7">
       <c r="C12" s="45" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="41" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E12" s="27"/>
       <c r="F12" s="4"/>
@@ -2019,7 +2019,7 @@
     <row r="13" spans="3:7">
       <c r="C13" s="45"/>
       <c r="D13" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E13" s="27"/>
       <c r="F13" s="4"/>
@@ -2028,7 +2028,7 @@
     <row r="14" spans="3:7">
       <c r="C14" s="45"/>
       <c r="D14" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E14" s="27"/>
       <c r="F14" s="4"/>
@@ -2037,7 +2037,7 @@
     <row r="15" spans="3:7">
       <c r="C15" s="45"/>
       <c r="D15" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E15" s="27"/>
       <c r="F15" s="4"/>
@@ -2046,7 +2046,7 @@
     <row r="16" spans="3:7" ht="13.5" thickBot="1">
       <c r="C16" s="45"/>
       <c r="D16" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E16" s="27"/>
       <c r="F16" s="4"/>
@@ -2055,7 +2055,7 @@
     <row r="17" spans="3:7" ht="13.5" thickBot="1">
       <c r="C17" s="45"/>
       <c r="D17" s="42" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E17" s="28"/>
       <c r="F17" s="29"/>
@@ -2063,10 +2063,10 @@
     </row>
     <row r="18" spans="3:7">
       <c r="C18" s="45" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D18" s="41" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E18" s="27"/>
       <c r="F18" s="4"/>
@@ -2075,7 +2075,7 @@
     <row r="19" spans="3:7">
       <c r="C19" s="45"/>
       <c r="D19" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E19" s="27"/>
       <c r="F19" s="4"/>
@@ -2084,7 +2084,7 @@
     <row r="20" spans="3:7">
       <c r="C20" s="45"/>
       <c r="D20" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E20" s="27"/>
       <c r="F20" s="4"/>
@@ -2093,7 +2093,7 @@
     <row r="21" spans="3:7">
       <c r="C21" s="45"/>
       <c r="D21" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E21" s="27"/>
       <c r="F21" s="4"/>
@@ -2102,7 +2102,7 @@
     <row r="22" spans="3:7">
       <c r="C22" s="45"/>
       <c r="D22" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E22" s="27"/>
       <c r="F22" s="4"/>
@@ -2111,7 +2111,7 @@
     <row r="23" spans="3:7">
       <c r="C23" s="45"/>
       <c r="D23" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E23" s="27"/>
       <c r="F23" s="4"/>
@@ -2120,7 +2120,7 @@
     <row r="24" spans="3:7">
       <c r="C24" s="45"/>
       <c r="D24" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E24" s="27"/>
       <c r="F24" s="4"/>
@@ -2129,7 +2129,7 @@
     <row r="25" spans="3:7">
       <c r="C25" s="45"/>
       <c r="D25" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E25" s="27"/>
       <c r="F25" s="4"/>
@@ -2138,7 +2138,7 @@
     <row r="26" spans="3:7">
       <c r="C26" s="45"/>
       <c r="D26" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E26" s="27"/>
       <c r="F26" s="4"/>
@@ -2147,7 +2147,7 @@
     <row r="27" spans="3:7">
       <c r="C27" s="45"/>
       <c r="D27" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E27" s="27"/>
       <c r="F27" s="4"/>
@@ -2156,7 +2156,7 @@
     <row r="28" spans="3:7">
       <c r="C28" s="45"/>
       <c r="D28" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E28" s="27"/>
       <c r="F28" s="4"/>
@@ -2165,7 +2165,7 @@
     <row r="29" spans="3:7">
       <c r="C29" s="45"/>
       <c r="D29" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E29" s="27"/>
       <c r="F29" s="4"/>
@@ -2174,7 +2174,7 @@
     <row r="30" spans="3:7" ht="13.5" thickBot="1">
       <c r="C30" s="45"/>
       <c r="D30" s="27" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E30" s="27"/>
       <c r="F30" s="4"/>
@@ -2183,7 +2183,7 @@
     <row r="31" spans="3:7" ht="13.5" thickBot="1">
       <c r="C31" s="45"/>
       <c r="D31" s="42" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E31" s="28"/>
       <c r="F31" s="29"/>
@@ -2191,10 +2191,10 @@
     </row>
     <row r="32" spans="3:7">
       <c r="C32" s="45" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D32" s="41" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E32" s="27"/>
       <c r="F32" s="4"/>
@@ -2203,7 +2203,7 @@
     <row r="33" spans="3:7">
       <c r="C33" s="45"/>
       <c r="D33" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E33" s="27"/>
       <c r="F33" s="4"/>
@@ -2212,7 +2212,7 @@
     <row r="34" spans="3:7" ht="13.5" thickBot="1">
       <c r="C34" s="45"/>
       <c r="D34" s="27" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E34" s="27"/>
       <c r="F34" s="4"/>
@@ -2221,7 +2221,7 @@
     <row r="35" spans="3:7" ht="13.5" thickBot="1">
       <c r="C35" s="45"/>
       <c r="D35" s="42" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E35" s="28"/>
       <c r="F35" s="29"/>
@@ -2229,10 +2229,10 @@
     </row>
     <row r="36" spans="3:7">
       <c r="C36" s="45" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D36" s="41" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E36" s="27"/>
       <c r="F36" s="4"/>
@@ -2241,7 +2241,7 @@
     <row r="37" spans="3:7">
       <c r="C37" s="45"/>
       <c r="D37" s="27" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E37" s="27"/>
       <c r="F37" s="4"/>
@@ -2250,7 +2250,7 @@
     <row r="38" spans="3:7" ht="13.5" thickBot="1">
       <c r="C38" s="45"/>
       <c r="D38" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E38" s="27"/>
       <c r="F38" s="4"/>
@@ -2259,7 +2259,7 @@
     <row r="39" spans="3:7" ht="13.5" thickBot="1">
       <c r="C39" s="45"/>
       <c r="D39" s="42" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E39" s="28"/>
       <c r="F39" s="29"/>
@@ -2267,10 +2267,10 @@
     </row>
     <row r="40" spans="3:7">
       <c r="C40" s="45" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D40" s="41" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E40" s="27"/>
       <c r="F40" s="4"/>
@@ -2279,7 +2279,7 @@
     <row r="41" spans="3:7">
       <c r="C41" s="45"/>
       <c r="D41" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E41" s="27"/>
       <c r="F41" s="4"/>
@@ -2288,7 +2288,7 @@
     <row r="42" spans="3:7">
       <c r="C42" s="45"/>
       <c r="D42" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E42" s="27"/>
       <c r="F42" s="4"/>
@@ -2297,7 +2297,7 @@
     <row r="43" spans="3:7" ht="13.5" thickBot="1">
       <c r="C43" s="45"/>
       <c r="D43" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E43" s="27"/>
       <c r="F43" s="4"/>
@@ -2306,7 +2306,7 @@
     <row r="44" spans="3:7" ht="13.5" thickBot="1">
       <c r="C44" s="45"/>
       <c r="D44" s="42" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E44" s="28"/>
       <c r="F44" s="29"/>
@@ -2314,10 +2314,10 @@
     </row>
     <row r="45" spans="3:7">
       <c r="C45" s="45" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D45" s="41" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E45" s="27"/>
       <c r="F45" s="4"/>
@@ -2326,7 +2326,7 @@
     <row r="46" spans="3:7">
       <c r="C46" s="45"/>
       <c r="D46" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E46" s="27"/>
       <c r="F46" s="4"/>
@@ -2335,7 +2335,7 @@
     <row r="47" spans="3:7">
       <c r="C47" s="45"/>
       <c r="D47" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E47" s="27"/>
       <c r="F47" s="4"/>
@@ -2344,7 +2344,7 @@
     <row r="48" spans="3:7" ht="13.5" thickBot="1">
       <c r="C48" s="45"/>
       <c r="D48" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E48" s="27"/>
       <c r="F48" s="4"/>
@@ -2353,7 +2353,7 @@
     <row r="49" spans="3:7" ht="13.5" thickBot="1">
       <c r="C49" s="45"/>
       <c r="D49" s="42" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E49" s="28"/>
       <c r="F49" s="29"/>
@@ -2361,10 +2361,10 @@
     </row>
     <row r="50" spans="3:7">
       <c r="C50" s="45" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D50" s="41" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E50" s="27"/>
       <c r="F50" s="4"/>
@@ -2373,7 +2373,7 @@
     <row r="51" spans="3:7">
       <c r="C51" s="45"/>
       <c r="D51" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E51" s="27"/>
       <c r="F51" s="4"/>
@@ -2382,7 +2382,7 @@
     <row r="52" spans="3:7">
       <c r="C52" s="45"/>
       <c r="D52" s="27" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E52" s="27"/>
       <c r="F52" s="4"/>
@@ -2391,7 +2391,7 @@
     <row r="53" spans="3:7" ht="13.5" thickBot="1">
       <c r="C53" s="45"/>
       <c r="D53" s="27" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E53" s="27"/>
       <c r="F53" s="4"/>
@@ -2400,7 +2400,7 @@
     <row r="54" spans="3:7" ht="13.5" thickBot="1">
       <c r="C54" s="45"/>
       <c r="D54" s="42" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E54" s="28"/>
       <c r="F54" s="29"/>
@@ -2408,10 +2408,10 @@
     </row>
     <row r="55" spans="3:7">
       <c r="C55" s="45" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D55" s="41" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" s="27"/>
       <c r="F55" s="4"/>
@@ -2420,7 +2420,7 @@
     <row r="56" spans="3:7">
       <c r="C56" s="26"/>
       <c r="D56" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E56" s="27"/>
       <c r="F56" s="4"/>
@@ -2429,7 +2429,7 @@
     <row r="57" spans="3:7" ht="13.5" thickBot="1">
       <c r="C57" s="26"/>
       <c r="D57" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E57" s="27"/>
       <c r="F57" s="4"/>
@@ -2438,7 +2438,7 @@
     <row r="58" spans="3:7" ht="13.5" thickBot="1">
       <c r="C58" s="26"/>
       <c r="D58" s="42" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E58" s="28"/>
       <c r="F58" s="29"/>
@@ -2481,7 +2481,7 @@
     </row>
     <row r="64" spans="3:7">
       <c r="C64" s="43" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D64" s="4"/>
       <c r="E64" s="4"/>
@@ -2490,7 +2490,7 @@
     </row>
     <row r="65" spans="1:7" ht="13.5" thickBot="1">
       <c r="C65" s="44" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D65" s="34"/>
       <c r="E65" s="34"/>
@@ -2499,7 +2499,7 @@
     </row>
     <row r="66" spans="1:7" ht="13.5" thickBot="1">
       <c r="C66" s="36" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D66" s="37"/>
       <c r="E66" s="37"/>
@@ -2515,7 +2515,7 @@
     </row>
     <row r="68" spans="1:7" ht="14.25">
       <c r="A68" s="46" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C68" s="40"/>
       <c r="D68" s="5"/>
